--- a/src/attributions/attributions_ig_traj_199.xlsx
+++ b/src/attributions/attributions_ig_traj_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG15"/>
+  <dimension ref="A1:GG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
         <v>-0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
         <v>-0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
         <v>-0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
         <v>-0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
         <v>-0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
         <v>-0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
         <v>-0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
         <v>-0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
         <v>-0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
         <v>-0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
         <v>-0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
         <v>-0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
         <v>-0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
         <v>-0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
         <v>-0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT2" t="n">
         <v>-0</v>
@@ -1573,130 +1573,130 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5648834357260741</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.1685978277193575</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2931215899351313</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03307731133419099</v>
+        <v>-0.0151198959754832</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.161394370747136</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2063649241938473</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.04755572348394541</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04751873417491444</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0533049081691991</v>
+        <v>-0.002807042665256548</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0.02151707548685943</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.006771073780925275</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>-0.002936139945189354</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.07428804916880115</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.3353607886787243</v>
+        <v>-0.05557717244222276</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0.005377667146446236</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09196206160980747</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.05009159603742939</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1684854427403481</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2970045172207172</v>
+        <v>0.04472782322440014</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.006874389909797956</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2137918015323891</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.0204575978287466</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03859401871273777</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.06995986169086657</v>
+        <v>-0.01214684190474318</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.05199961574270204</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
@@ -1708,22 +1708,22 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4423397750343595</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.1811331160631621</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2566945362911093</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.07815893910856343</v>
+        <v>-0.02983869464580163</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.1479472865526363</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1735,79 +1735,79 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1799318160258384</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.05788837861161806</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.1449866957468336</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.03979206403271197</v>
+        <v>-0.02304460196370412</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.07388081647276558</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.1554500204193404</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.02600165305687407</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1487530595357626</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.2177245442478413</v>
+        <v>-0.01133386064358824</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>-0.009149324988455087</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.3469496735058464</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.05662743404773649</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.06556344374889859</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.08438904809194049</v>
+        <v>-0.03903512116657529</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.05424613326781513</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
@@ -1816,22 +1816,22 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.2492684940842304</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.059732943763059</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.1002780322449971</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.02043556555148419</v>
+        <v>0.008325567071979149</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.06469911915438459</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1840,298 +1840,298 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.08598762215571937</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.01254194879425214</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.03486923140892589</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.279069946032725</v>
+        <v>0.03751276848557811</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.01085990714000432</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.2194015291654661</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.04303544335468487</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.1225927514154751</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.1318902160734997</v>
+        <v>0.0001302330125048754</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.07413813489325953</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1284322791721017</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.07509270508392367</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.03221219786012582</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.04664659020575096</v>
+        <v>0.02135936451085691</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.001484761372163357</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.06563720538259041</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>0.02825658735269271</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.07741798864637692</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.08032183368060322</v>
+        <v>0.05283488128186219</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.01334066465198895</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.02140666469355473</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0.02065384349129177</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.0510463673373237</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.2857690902550508</v>
+        <v>-0.0140844133204887</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.003205524083498438</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.3461048224795716</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.0789736873880712</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1310736295758396</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04997957749885964</v>
+        <v>-0.01186008434434099</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.07048538812824297</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.07073337304521066</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.04986569033668355</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.118133371417337</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03543792396307645</v>
+        <v>0.03165760633777971</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.04578108528886896</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.2417993886068049</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.04779688434047946</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.1157298096757764</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.05852234708752264</v>
+        <v>0.01274640823956842</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.06192234663859664</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.2149316153988306</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.02907390299935221</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04806400357371313</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.1112103822309952</v>
+        <v>-0.04817857275785145</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.06303047881796549</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.1212013791592772</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1113650412406252</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.04927406737166965</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.1415970771303426</v>
+        <v>-0.0009074411102568673</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.04130768847402259</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.05468931036855101</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.05823925304369246</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.02998955230528236</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.01261547495367103</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,49 +2711,49 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3615502109481519</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.08187283595888863</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06612554177052661</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08411500803699282</v>
+        <v>-0.01788595156896632</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.03619966431532144</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1432273817809392</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.02616505401158302</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.05122379985618554</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.07763211313111469</v>
+        <v>-0.007472454984637081</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.02396280479498232</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2765,49 +2765,49 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01932972170673105</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.00623493929843797</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02170890501457126</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2404620141852127</v>
+        <v>-0.003810217957325646</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0.005935103970945353</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05236611007929057</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.01570567996040501</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02987190347180506</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02013713206454681</v>
+        <v>0.02005423544544419</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.002577763039957782</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
@@ -2816,136 +2816,136 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1094582381502362</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.01212467331209952</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.02704417156898165</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.08415705642840568</v>
+        <v>-0.01170179461750233</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01695411866153231</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.197623837693427</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.0819182185973497</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.03610373679258187</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
         <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01573778847632114</v>
+        <v>0.01069360534639153</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.00245863163269701</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1219009024097808</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.02862710770225349</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.07785184508943564</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.03216855448614791</v>
+        <v>-0.03031103844955549</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.06499869683216976</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.05336205434750995</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.02674952219401873</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.06291723685091513</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1775783806376174</v>
+        <v>0.02412277475503327</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.003455965408192872</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1634178102695077</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.03320446831974715</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.009413309223808031</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01117568679582307</v>
+        <v>0.0004176975673064586</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.0133706109728433</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,22 +2954,22 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1291644215667375</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01987442859308093</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.04708624246344676</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.03277304335556158</v>
+        <v>-0.0009020345195736598</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.0259724256499671</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -2981,130 +2981,130 @@
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.01780955324493757</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.01184285293752544</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.005218294811605802</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
         <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1451653980820289</v>
+        <v>-0.01616715470987497</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.00263718248814179</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.1139720947897995</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01441434160121328</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.04780312249341385</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
         <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.02297470642792607</v>
+        <v>0.002030277521816523</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.02659902297599469</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003221945302499309</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.001044153881051279</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.02977447759900918</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.08119127439022822</v>
+        <v>0.02796570389473694</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.005933870741451377</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.01046601905227048</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.006889662996651101</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.013065300925165</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02781913833808979</v>
+        <v>0.001992156146441421</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.006657918363706377</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.002752767053775773</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01290068023462178</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.002536823125956187</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.08627987119811777</v>
+        <v>-0.03185858114901458</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.002177194120003404</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
@@ -3116,186 +3116,186 @@
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1938055775435435</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.02315874160745404</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.04458779998805801</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.04463406281907212</v>
+        <v>-0.01004180724135467</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.02268967723294838</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.03949303738377028</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.01265435205936193</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.04664482792149568</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1025734398828053</v>
+        <v>0.02299118076957868</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.01191818864676632</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1153867108510796</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01721876809764708</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.04801845585483601</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.0002124342932837482</v>
+        <v>0.003716960047084964</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.02483343750746227</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.126512101371315</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.00854343257363065</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.03658338178311245</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02234739663499103</v>
+        <v>-0.03677164741241872</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01912191582811358</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
         <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.008909182298873998</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.003579621120260352</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01208602544884665</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.0002982958561165341</v>
+        <v>0.000492496695095602</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.0145479937270314</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.08575296130649604</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02941631913428946</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01282258087000578</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.01389649846273062</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5601831715564427</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1713794130513188</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1329257146571287</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07457739741451511</v>
+        <v>-0.01892467161469861</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.109753902884278</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,25 +3304,25 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2858904012026099</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.07570235766345126</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1081383377099644</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1101220430346816</v>
+        <v>-0.007635398579040155</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.07252769621602427</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,82 +3331,82 @@
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05852944406121839</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.02509258889074246</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.08082566037202583</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3143399195930087</v>
+        <v>-0.01181035028821421</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.008440540590872351</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01584661873022104</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.02894888915720263</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02215362921841438</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03656586710571726</v>
+        <v>0.0226366252413698</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.006725632341609495</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.154383520914867</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.04003063297870788</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01391824883712804</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.0361368142654037</v>
+        <v>0.00591294617959779</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.04255940749882337</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>-0</v>
@@ -3415,25 +3415,25 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.3032223970316489</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1418616465296543</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1234048852839584</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01246597016889579</v>
+        <v>-0.0004032753216122987</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.05720184750516601</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
@@ -3442,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1717082161265037</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.06345228374218279</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.1109476260368054</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.003634737514201326</v>
+        <v>-0.05110581130623398</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.09164535468444025</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.07718968563378205</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.04291401818358646</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.06813160403122794</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.2529969704185888</v>
+        <v>0.02136770651641674</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.004147470016605554</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,52 +3496,52 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.248115431333756</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.07180169613644215</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.03035688479491368</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.02238222477598705</v>
+        <v>0.004625417700504807</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.02228143168241953</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.1878638776043472</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.04383624029890307</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0624517280341883</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.03684196523288289</v>
+        <v>-0.005633421692239364</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.04490986007188176</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,49 +3550,49 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.002731359455631128</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.02844427109563514</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.00783526149724445</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.2269230756044493</v>
+        <v>0.003542627802623093</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01438444263170192</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.1607617222723685</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.0356239483984902</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.06382326338868821</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.05618283586069341</v>
+        <v>0.002536505210310589</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.04775367435203452</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3604,22 +3604,22 @@
         <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.02515538665583312</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01726078474621639</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.02355469971406274</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01222407289637031</v>
+        <v>0.009889988242547873</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>-1.313835936353034e-06</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -3628,133 +3628,133 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01861530007445103</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.01363236212848895</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.01112235618922782</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.06064648430704088</v>
+        <v>-0.009784955756976998</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.02486892102637919</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01547274050106289</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.01269912638380186</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.02539484702111649</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1384762172920031</v>
+        <v>-0.03250054760888751</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.0004203229311097074</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.2979059596089814</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.0295166063685969</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.06038122633016188</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.09211602055038326</v>
+        <v>0.003453209687453299</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.03657371726072015</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.06080806752571023</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.02932533213330311</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.0754331058888847</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0704363412571762</v>
+        <v>0.01289750679968222</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03688696515449237</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.1578914355386269</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.03921657459231797</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.06215462476847931</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.02501699835291622</v>
+        <v>-0.002965518598960173</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.04395900847001553</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3766,76 +3766,76 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1339161920783467</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.0238715624459405</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.02831171376130903</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02155504907777477</v>
+        <v>-0.02218599795578857</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02129309600338048</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.01745301462472374</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.008810360560574477</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.01173481920554681</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.002123059071964105</v>
+        <v>0.001772533131612066</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0.02761802697644911</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.1078206574463292</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.0402653915063716</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0.02313165592705966</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.005833040448543275</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
@@ -4418,52 +4418,52 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5851634373989812</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.3926886793102888</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1196933615117881</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.1365453942531331</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01007926255329783</v>
+        <v>-0.06135052049214819</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.08908102656207099</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01669046766259287</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4722540696391131</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.2477188306347894</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1072281265330617</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.09609608700566104</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1093728378654006</v>
+        <v>-0.04287203157107024</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.06923070025032288</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.06794621050058952</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,79 +4472,79 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04570292488215012</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.06018502757474238</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.09988069752892546</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.01756942906524828</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1918115200343416</v>
+        <v>0.05223183262016945</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.05167334577581594</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.104322990148491</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>-0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02880117784349662</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.02330185984541077</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.08123707332420906</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.1150661501378136</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01725561539440628</v>
+        <v>0.04131269553359647</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.0227997950559226</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1321327274087734</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1605933558472227</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01456182233038986</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.007544455203135301</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.02655612931762007</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.0327001143667995</v>
+        <v>0.0003339925803306597</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.06404570946564596</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0213946294804867</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4553,52 +4553,52 @@
         <v>-0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2671788814460549</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.3949963039240794</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.0901641119669403</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.02230098382110633</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.03168901730911614</v>
+        <v>0.1110132249620883</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.1573292114618001</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.03890674328225549</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1974441843079498</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0</v>
+        <v>0.04746907816803728</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.06298395797511604</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.01758874989933211</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.02192703346038287</v>
+        <v>-0.08495922417927249</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.2488031012363983</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.05459992242543974</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,52 +4607,52 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.08723336686413018</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.0279798122837994</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.04079460941385748</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.04682831504218452</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1640400891567018</v>
+        <v>0.09615459817458288</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.0278144360465245</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0506064203397284</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2239904122798853</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1800357826400644</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.03693989210354012</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.03944476423870449</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02110938178479804</v>
+        <v>0.01000190164614114</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.09790758714660468</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01191547809023854</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,25 +4661,25 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1839657212518993</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.08489435563096837</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03783607183217705</v>
+        <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.01528869399273533</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01826748808339687</v>
+        <v>-0.01707767930938972</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.04539655343499202</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.01110884360769399</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -4688,25 +4688,25 @@
         <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002854357907724025</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0.07668827123582143</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.004180405308210107</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.1022154187547283</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.1533329172921798</v>
+        <v>-0.1500050748572051</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.07213995445446381</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.0818222269404902</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,79 +4715,79 @@
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1657129595736107</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.08256465873710113</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.04283356012783091</v>
+        <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.04040560023108161</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.05139818296727907</v>
+        <v>0.002263642318322425</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.07585906650282848</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.01149328960030748</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.04525685329639169</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.01275571396523019</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01609861738529767</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.1263675657751716</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.01381142391253041</v>
+        <v>-0.01369112019809822</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.007468728881301961</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.007747658425175668</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.04239206473947106</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.06867300415538784</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.02107207723002213</v>
+        <v>-0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.008175238108033611</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.08083832165276936</v>
+        <v>-0.01049258639422003</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0.04623288677949244</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.04475324907931636</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
@@ -4796,25 +4796,25 @@
         <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.04141676840934892</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.02619485015428234</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.03675668710192658</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0.01401742328717328</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0297587391637335</v>
+        <v>-0.03594607381291359</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.05034925057673755</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001484834688221768</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4823,174 +4823,174 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.3060516656540871</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.1385310962453149</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.04061068601458034</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.08792786857933774</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03466522017495929</v>
+        <v>0.09716257225126976</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>-0.002308214746918405</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.07668348554240872</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.03068048065338051</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.07443717235647483</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.02596680777005746</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0.01958275743200161</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.09023020743518324</v>
+        <v>0.007398505192010304</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.1180046043719705</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0110265516104404</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1611515838981595</v>
+        <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.07640412963521893</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.04538211346038131</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.009948831104005032</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.02631513470531905</v>
+        <v>0.009159389543222717</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.05048918996764769</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0107240023263419</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.1661448501619694</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.05737526836358202</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.05729288907389318</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.05655793629884794</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.110125262909182</v>
+        <v>0.01879917378061038</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.006229051207426107</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.08321691084556619</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.02391096587843931</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.001531620594227596</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01595441906342408</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>-0.0551834309710118</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.002256268092107705</v>
+        <v>-0.006999546615907364</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>-0.03731120619640287</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0.001592734773393339</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.1348454741411614</v>
+        <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.1103519676567491</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.04513268606655525</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.06948476771907966</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>0.00183617494813954</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.04379545055989067</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5556,22 +5556,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3213044300132494</v>
+        <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.5283914224206286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4302862546279603</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2321235321759448</v>
+        <v>0.003147124462677014</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.7282964234395957</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
@@ -5580,25 +5580,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1805623225931201</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.2576220748438526</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3633221126327943</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002390668936300479</v>
+        <v>-0.08755258539904424</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0.4954912584070811</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -5607,28 +5607,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01223226534399078</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.05287625667856224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1217879887310155</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1515941949225138</v>
+        <v>0.09266587989764534</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0.02503722379902499</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -5637,130 +5637,130 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.03141449649650829</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.09196414565272197</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01386064958511619</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1735821359279508</v>
+        <v>0.003562138555045154</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.1654812931005469</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.07847857691491712</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.07840102353032</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.06384240690772226</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01061364995323538</v>
+        <v>-0.1139179025692985</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.1983817922103623</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.1106458328224254</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>-0.2383644404061573</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2074695067683084</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.02233305222603415</v>
+        <v>0.02937140010255998</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0.3236518652441142</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.07375929180668186</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.2039539909957105</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1503411104390177</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.2768751595631029</v>
+        <v>0.106097143754319</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>0.2599298027329151</v>
       </c>
       <c r="BI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.05968630792119427</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.05540406911458669</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.08393857791024283</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1664016900217561</v>
+        <v>-0.07780748520141645</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0.01927262277726467</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
@@ -5769,55 +5769,55 @@
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.1391069463121338</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>-0.2002768644924784</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1182776534725862</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.06928039227699877</v>
+        <v>0.005133123227497339</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>0.1687152589357802</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.1180287261850163</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1284504385197967</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.08748029379306915</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01885410174447808</v>
+        <v>0.001700276050467914</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>-0.1318672845489291</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>-0</v>
@@ -5826,25 +5826,25 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.01671030080858617</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>0.02880937887162975</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.04149808508285281</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.08406158755721517</v>
+        <v>-0.1581050339349822</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>0.1112392202815619</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
         <v>0</v>
@@ -5853,184 +5853,184 @@
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1064479697749923</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.1002005632381933</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.07606744927806368</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0566113870318375</v>
+        <v>-0.02632988616287044</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0.1721105843893959</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0001715112994692421</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.006623522347681468</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.004596454463577807</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.02644635561872087</v>
+        <v>-0.2065532395227702</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.04110858911518869</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.07558194767448428</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.09845532003294798</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.07279318054367075</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.05464893708302992</v>
+        <v>-0.004892756027968412</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0.02624013931227699</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.01449491519716819</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.01452186640111653</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.01144494542783585</v>
+        <v>-0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.01604754224307416</v>
+        <v>0.1947998699956032</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.02671693506866205</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1460897481693036</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.07739903866462014</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.113663705754822</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.04123875564834121</v>
+        <v>-0.05333012070582895</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>-0.1432692400093165</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.02670457612674624</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.155510776297217</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.09911558614188051</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02730735142500335</v>
+        <v>0.02806994949283125</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.1275767779425557</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.1115216977843519</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>0.1199080643387139</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.06884955141600796</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.03152531113018985</v>
+        <v>-0.02186956206601598</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>-0.1634322186791656</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,25 +6039,25 @@
         <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.05527513415306919</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.01211649542923368</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.07439047657571971</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06620421591697269</v>
+        <v>0.06753624719041072</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>-0.06475994080631081</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6066,43 +6066,43 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.03124016955714618</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.06385377685465279</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.05669320323858763</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03570686125006971</v>
+        <v>-0.05209973275440163</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>-0.1531211471075874</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.01641904739437729</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.1665781732194213</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.08630147995816687</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,10 +6111,10 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>0.05113894467898045</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>0</v>
@@ -6128,73 +6128,73 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.2516065355562112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4646145400318097</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1478574093021161</v>
+        <v>-0.01869473350911864</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.1620592924349578</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1814701271055124</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.194503247676321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.446732127074121</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2623422234613126</v>
+        <v>-0.02220989086086562</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.1211956380578382</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1385456178050191</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.0277144771957759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01028710248929694</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06000081518566643</v>
+        <v>-0.01992651293359777</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01467480711689152</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -6203,133 +6203,133 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.09001713208181318</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.03202216902423068</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.004282616231892474</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05215086512024795</v>
+        <v>0.01420845947731902</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01575746823512983</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1224389712048724</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.0280171460500328</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.09935484256551984</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0937602922766093</v>
+        <v>-0.02418728249508569</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.06865145237668588</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.02794883882027365</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.1550150551983126</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1477359322149491</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03816881133958017</v>
+        <v>0.02665833060427253</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.06532045777545753</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.1338793791273072</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.08349232001166544</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2282265207497771</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.0168930976906194</v>
+        <v>-0.06312899480197592</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-0.09233573397660733</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.02807723473042086</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.07542215848354106</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.08103590648540335</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1460468967128362</v>
+        <v>0.0302527361786107</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.04035458844157969</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,106 +6338,106 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.09366444306063583</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.1053516172500136</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1239631314622074</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.005938197450882297</v>
+        <v>0.02287628520274828</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.03316472666585606</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.1426350212989702</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.05136423788707088</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.1072149433434174</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.0806961130603748</v>
+        <v>-0.009789880049820081</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.03659045480511312</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.04087311390656419</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.04110894318229944</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.00667194174109297</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.09486185977690752</v>
+        <v>-0.03163966403172979</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.02140388949232277</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0.04434578206467123</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.03724984259746821</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08470029144113023</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.04882890800663601</v>
+        <v>-0.007195036978348065</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.04415952137769032</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6446,79 +6446,79 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.03771923728033975</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.005643708400773112</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.00138605150364035</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.02626250011918636</v>
+        <v>0.005184475568263673</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.01252524204076916</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01807894056174075</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.01907523311533118</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.05624035946436632</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.02840868744382388</v>
+        <v>-0.001556273477890819</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>0.01084237679480029</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0.05663679779243008</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.05767496116426071</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.06709854987021721</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.007642797824657232</v>
+        <v>0.01073957232190554</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.03443815800016475</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,192 +6527,192 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.04193874023826194</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.02942373276540911</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.1086543566276213</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.1607306265979753</v>
+        <v>0.002565719896306367</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.01978182389262372</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.02875722883707413</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0.00302666132268416</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.08574365058694637</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0749767284191572</v>
+        <v>-0.01131280024313108</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.008900233666226217</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.11530132825487</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.03863928362347025</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.09595734403207146</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.06860338421901171</v>
+        <v>-0.001461288147201411</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.04607969545788086</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.074667964538017</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.005840626453025755</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1384288434031933</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.05635814512715829</v>
+        <v>-0.02663366389764812</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0.04152876669864391</v>
       </c>
       <c r="FM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN11" t="n">
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0.006175137624120649</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.02575910869704859</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.08155081897301096</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.1615886260218137</v>
+        <v>0.03991647730728398</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0.00292809167061851</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0.006761879264083706</v>
+        <v>-0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.03193951623530966</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.09879441959840846</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0.06445939264966975</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.1052173148571214</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8254252418247997</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>2.0406385542872</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3496087722539958</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.8902476184013699</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05117422695422678</v>
+        <v>-1.140550154303724</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
@@ -6721,103 +6721,103 @@
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8102794428467206</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>1.640834696714954</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3933355100048031</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.7428088079253242</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.3187570877460892</v>
+        <v>-0.991343862332668</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05493804451883347</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.4781658061839918</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1153199252343586</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.1275600108175528</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.3279534875120554</v>
+        <v>0.00148447910802298</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.02527877934372057</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.5368668954180984</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.09778382542922708</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.09545000168913126</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05027682035518129</v>
+        <v>-0.1447758597609176</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.1921246339809999</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.3666843451312236</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.06719692683414866</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.03872985032320367</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.09475720414893607</v>
+        <v>-0.1813800919471867</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>-0</v>
@@ -6826,103 +6826,103 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.3674324383016764</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1.24526468127957</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.2167348511588096</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>-0.1535194345200939</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.101879172706039</v>
+        <v>-0.3345061557355587</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.1693988979662636</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.333184670328357</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.08247199225295564</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>-0.4395436923720483</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1736565478079604</v>
+        <v>-0.886943238672714</v>
       </c>
       <c r="BH12" t="n">
         <v>-0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.08896319574242029</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.349752365550903</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.08394416685935914</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.1212027235579398</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.2634369529029135</v>
+        <v>0.1541991282872415</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.4102104686532952</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.9317630051163499</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.1445726349022343</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>-0.02399061556935784</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.04092197659528018</v>
+        <v>-0.2952951972369489</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,22 +6934,22 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.1965002127653952</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.4485944247333926</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.06514698151296713</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0.1567581340838901</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.05603236063167172</v>
+        <v>0.1009794670475838</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
@@ -6964,25 +6964,25 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.05406253349136591</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.1220484377591267</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01740543645235649</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>0.03862535848932194</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.1667678384830731</v>
+        <v>-0.345814913071178</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
@@ -6991,22 +6991,22 @@
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.1795784364925616</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.3813287026966577</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.07215779806118193</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>0.2482959826666862</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.05409615967985515</v>
+        <v>0.03302122348503764</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,22 +7018,22 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.01196814280248882</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.4937506032084342</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02263962278573856</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>0.4271097881272007</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.005025898380675678</v>
+        <v>0.002437462429212044</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
@@ -7042,130 +7042,130 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02487384567953769</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.2756957416844208</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.03166985599500687</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>-0.1743360711249024</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01832566191592318</v>
+        <v>-0.1592169641431032</v>
       </c>
       <c r="DS12" t="n">
         <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.03702560381217734</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.1956765083416818</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.04332003797304534</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>0.1575018148302079</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.08016934073616616</v>
+        <v>0.2429281178187477</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.2892154719752878</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.3240996522032035</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.07124272561971147</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0.1327572795094883</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.1066914782967403</v>
+        <v>0.3313237395681666</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.06619375499329132</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.09072804987080889</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.06449394114848293</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.2397064038302912</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.02719010847584714</v>
+        <v>0.08268389677316298</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.1883187271860365</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.3709003077989703</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.07101039960729157</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>0.2481074472495689</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02553958017477031</v>
+        <v>0.04128431917975884</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
@@ -7180,46 +7180,46 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.1475354482874195</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.1631970748280745</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.1182686469554054</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>-0.3455343103978719</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.08254150137858422</v>
+        <v>-0.01400248371133362</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.002997810357509959</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.1090188335561572</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.08921322353193606</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>-0.05992833630196636</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.0002934955565727117</v>
+        <v>0.04758727323510854</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
@@ -7234,16 +7234,16 @@
         <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.1306015458700191</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.02571918467818198</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.1041035379973137</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>0.09128693519641287</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
@@ -7252,90 +7252,90 @@
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.197312442556863</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.302078055914711</v>
       </c>
       <c r="C13" t="n">
-        <v>1.615463589007969</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2415108030786481</v>
+        <v>-0.2517215424330436</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2.642013459313908</v>
       </c>
       <c r="G13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.322907599736315</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.023164522400701</v>
       </c>
       <c r="L13" t="n">
-        <v>1.921114001213477</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4398130598310936</v>
+        <v>-0.05383206320594003</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.139449688339426</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.08883474558000361</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.1448423965361824</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1995398945316266</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2737412762661109</v>
+        <v>-0.2750479477819067</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.3798503599255162</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -7344,25 +7344,25 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.008220529580823272</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.363959018515035</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.08732444461792145</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.04763186928657089</v>
+        <v>0.07396618341370964</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.2379841760846622</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
@@ -7371,22 +7371,22 @@
         <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.4191535156516468</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.2100189781704509</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.2417856319742402</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1001740754421467</v>
+        <v>0.419054032055011</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.579037165353103</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,106 +7395,106 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.6295390825059654</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>1.164276814495944</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.8333729672543519</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.2964024497220812</v>
+        <v>0.02992575846060882</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>-1.763501115544519</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0.2226288963008806</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.6271063789268441</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.4551864050055371</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.5657877185359446</v>
+        <v>-0.5615168125330545</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.6105721187876442</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.138861194602619</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.4752099098414173</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.3313745077498226</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.6226456068912665</v>
+        <v>0.004174835902408049</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0.1999234212487693</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.8312389807095187</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.8586088475327155</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.483262241228864</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.08534700386340711</v>
+        <v>-0.1051437488393054</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0.8607299812160878</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -7506,399 +7506,399 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.3711696518958859</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.4867844363945717</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.3676149118007976</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
         <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.06134986450624853</v>
+        <v>0.03293254953194606</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.3431947654819701</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.04672206176956456</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.1375599189491589</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.039341499078717</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.3004656133942074</v>
+        <v>0.2536922919140927</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.1281031196870485</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.3317284249662844</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.4048719237502993</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.372193501635236</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.1624496754215221</v>
+        <v>-0.04694836840359604</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.3858428291605034</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.04864677410519319</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.5400829612092838</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.304023275584914</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.1521302963760244</v>
+        <v>0.4354261881522185</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.5906206839656081</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0.0512293186062145</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.2165078669639293</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.07516717654190985</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.2501362115333208</v>
+        <v>0.06950714016777096</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.3393828130595613</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.1750434290767011</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0.2086088051878926</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.07851667827876152</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.08926853010001622</v>
+        <v>0.1285140390942495</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>0.2975907491264709</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.6101749570292626</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>-0.3560148420983008</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.3884558667980677</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.0661549663208954</v>
+        <v>0.237363827241719</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.03222591069220682</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.1591338150177525</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0.2890518237526165</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.1156782999206504</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
         <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.2494956740539457</v>
+        <v>0.2479209837516308</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0.1660989616007269</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.3669543352295371</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>-0.4041441315643215</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.3794831519938674</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
         <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.1095879832502605</v>
+        <v>-0.01107567692722042</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.3356417156421466</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0.2087937824556781</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.1113655289363883</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.4608436998702495</v>
+        <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.06658158491197509</v>
+        <v>0.05005242953781455</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.3166951956505472</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.009443965905084331</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.1641193736210981</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.1572319701611216</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.007512942001095859</v>
+        <v>0.4440372414835626</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.4133376030149396</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>-0.1828372597521584</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.1572051969257538</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.2059008751764826</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0.3194260776214765</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5900297323390874</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.5599100438199569</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9296458573243122</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>1.050020863819467</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1721211991305041</v>
+        <v>0.3147245161396676</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.6240624522202649</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>-0.448027549541633</v>
       </c>
       <c r="L14" t="n">
-        <v>0.943784975150053</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0.7400365403683685</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1288799084977165</v>
+        <v>0.272684590709271</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01053425100429637</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0.1918193957326597</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09449533225201377</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>0.130336764980623</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1205388867565658</v>
+        <v>-0.1900164385804097</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -7907,31 +7907,31 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
         <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.02366528849312736</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0.06021481104608277</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.06120283290647224</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>0.0969145910042586</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.1026290310609737</v>
+        <v>-0.03121996576819917</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>-0</v>
@@ -7940,19 +7940,19 @@
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.2250746765562466</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.1633949443435726</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.1856088780248532</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>0.06545632349004307</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.08029771979483211</v>
+        <v>0.07665280662361823</v>
       </c>
       <c r="AP14" t="n">
         <v>-0</v>
@@ -7967,19 +7967,19 @@
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.2819003635153167</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>-0.3048409136725442</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.4753149664418564</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0</v>
+        <v>0.4295557371874041</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.194984377893273</v>
+        <v>0.1069280712115607</v>
       </c>
       <c r="AY14" t="n">
         <v>-0</v>
@@ -7991,25 +7991,25 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0.1408207073852842</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0.1852514544884164</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.261619135604344</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>0.4310814736176468</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.321594783577922</v>
+        <v>0.2826310010798516</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI14" t="n">
         <v>-0</v>
@@ -8021,19 +8021,19 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0632725293996735</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0.1747123649364067</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.1275348136506407</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>0.02634827879058006</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.3406946432402699</v>
+        <v>-0.2040868279756383</v>
       </c>
       <c r="BQ14" t="n">
         <v>0</v>
@@ -8042,25 +8042,25 @@
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0.3347724104016598</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0.1988621796236317</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.3264440215589258</v>
+        <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>0.1679921707871132</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01088554993393947</v>
+        <v>-0.04929734368925874</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -8069,31 +8069,31 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.1768445257668988</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.09397256753552523</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.1869436417253584</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0.1878812690494974</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.02716220673925267</v>
+        <v>-0.01035293738019606</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
         <v>-0</v>
@@ -8102,25 +8102,25 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.05963152920034309</v>
+        <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.03180443459335135</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0.02344137081590438</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0.0003027418749707973</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0893287420032495</v>
+        <v>0.1003744779270384</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
         <v>0</v>
@@ -8129,46 +8129,46 @@
         <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.1663610165632126</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.08226409372898431</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0.1803899690628212</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>-0.2076550669469801</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.07555183887151512</v>
+        <v>-0.03443710150081503</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.008520761713904658</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>0.1881454475770754</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0.1362114956496486</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0.3240493412344442</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.008984681578957364</v>
+        <v>0.2931670465828338</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8180,49 +8180,49 @@
         <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0.05056692677886241</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0.009292538777876348</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0.0555104065302395</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>0.03831390796173454</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0630476622550199</v>
+        <v>-0.09960777875463489</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.05906877805260603</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>0.07810678308341908</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0.0764558336521562</v>
+        <v>-0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0</v>
+        <v>-0.09673662653469002</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.04069014279465665</v>
+        <v>-0.001765021540908611</v>
       </c>
       <c r="EB14" t="n">
         <v>0</v>
@@ -8231,82 +8231,82 @@
         <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.2558186778836066</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>0.0716577644725838</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0.2277192837065505</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>-0.1254035912057079</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.01893855319411954</v>
+        <v>-0.1317925914482092</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.05868871438227073</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.04657785520115242</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0.08343307250130924</v>
+        <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>-0.01411790966509287</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01621709339855089</v>
+        <v>-0.002714522490093503</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
         <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.1848023055707498</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.08183265230553262</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.184468760812063</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0</v>
+        <v>-0.1804853189987381</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01784680280135003</v>
+        <v>-0.03831643761185867</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8318,22 +8318,22 @@
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.09865255805360308</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>0.05835631089210017</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0.1731968711505168</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>-0.1933783790294422</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.06381866977701488</v>
+        <v>-0.004935912850177751</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM14" t="n">
         <v>0</v>
@@ -8342,28 +8342,28 @@
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.06945113930082959</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0.03199625284883757</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0.1203396918410158</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>-0.151420881489206</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02625582529482341</v>
+        <v>-0.2233925918086138</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
         <v>0</v>
@@ -8372,16 +8372,16 @@
         <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-9.515908743050602e-05</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>-0.1538941175194398</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.179002665000284</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0.07838252429901899</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
         <v>0</v>
@@ -8404,19 +8404,19 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.4694112603714919</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0.2710339508115251</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.7397930556924082</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8425,25 +8425,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.4346483387182067</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0</v>
+        <v>0.1173725285455399</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.5972556050245771</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0.05198071134366324</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0</v>
+        <v>0.1015416820210057</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.0297516703088462</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
@@ -8485,34 +8485,34 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0.1118550111766569</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0</v>
+        <v>0.06516019077510581</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0.01739232010157258</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0.1132070176150761</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8521,13 +8521,13 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0</v>
+        <v>-0.09089700390295564</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.1739261636790081</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0.3496899527718045</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8548,13 +8548,13 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0</v>
+        <v>0.09276502183887261</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>0.5438418323079567</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
@@ -8566,25 +8566,25 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0.1074494346709868</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0</v>
+        <v>0.2338965409089844</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.1387182181878182</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
         <v>-0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0.2046965199291179</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8602,10 +8602,10 @@
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0</v>
+        <v>-0.01817155673899798</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.00890812982570072</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,19 +8620,19 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0.2487398972275829</v>
       </c>
       <c r="BW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0</v>
+        <v>0.06934243574014651</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.2193850586957588</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8647,34 +8647,34 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.08685139991679428</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0</v>
+        <v>-0.03769286755693406</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0.1234789907323716</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.004223502285298179</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0</v>
+        <v>-0.0952541723043958</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>0.0313220297290467</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8695,79 +8695,79 @@
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.06445553443237705</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0</v>
+        <v>-0.03705065450328504</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>-0.1469018032601682</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.0861031547458173</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0</v>
+        <v>-0.183248447160072</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>0.02432949244671894</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
         <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.05812385447650686</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0</v>
+        <v>0.1247071200815989</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>0.0997609045992837</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8782,46 +8782,46 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>0.06781705311584026</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0</v>
+        <v>-0.0300163601448277</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0.05643828043096304</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.07613285877764718</v>
       </c>
       <c r="EH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0</v>
+        <v>-0.06592153539097424</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0.1034955973012468</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8830,13 +8830,13 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.05849982068935675</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8845,25 +8845,25 @@
         <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0</v>
+        <v>0.02821287917745455</v>
       </c>
       <c r="ET15" t="n">
-        <v>0</v>
+        <v>-0.0003578574784063377</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.06193106658417517</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8872,52 +8872,52 @@
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0</v>
+        <v>-0.03904311055780563</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0.1337970341641347</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.04808725523091254</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0</v>
+        <v>0.02495150915208932</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0.1015816578314805</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.04366701635913742</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
@@ -8926,45 +8926,614 @@
         <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0</v>
+        <v>-0.0422578771060257</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>-0.1753812882517644</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>-0.04387011112429012</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>0.1044987460110746</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
         <v>0</v>
       </c>
     </row>
